--- a/s2cDNASample/s2CDNASample_J.PLAGGENBERG_05.31.19.xlsx
+++ b/s2cDNASample/s2CDNASample_J.PLAGGENBERG_05.31.19.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
 </sst>
 </file>
@@ -63,7 +63,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -95,6 +95,13 @@
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -141,7 +148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -156,6 +163,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -185,8 +196,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -239,10 +250,11 @@
       <c r="F2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="b">
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -265,10 +277,11 @@
       <c r="F3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="b">
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -291,13 +304,14 @@
       <c r="F4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5"/>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -318,10 +332,11 @@
       <c r="F5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="b">
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -344,10 +359,11 @@
       <c r="F6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="b">
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -370,10 +386,11 @@
       <c r="F7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="b">
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -396,10 +413,11 @@
       <c r="F8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4" t="b">
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -422,10 +440,11 @@
       <c r="F9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4" t="b">
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -448,10 +467,11 @@
       <c r="F10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4" t="b">
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -474,10 +494,11 @@
       <c r="F11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4" t="b">
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -500,10 +521,11 @@
       <c r="F12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="4" t="b">
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -526,10 +548,11 @@
       <c r="F13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4" t="b">
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -552,10 +575,11 @@
       <c r="F14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="4" t="b">
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -578,10 +602,11 @@
       <c r="F15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="4" t="b">
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -604,10 +629,11 @@
       <c r="F16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="4" t="b">
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -630,10 +656,11 @@
       <c r="F17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="4" t="b">
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -656,10 +683,11 @@
       <c r="F18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="4" t="b">
+      <c r="G18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -682,10 +710,11 @@
       <c r="F19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="4" t="b">
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -708,10 +737,11 @@
       <c r="F20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="4" t="b">
+      <c r="G20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -734,10 +764,11 @@
       <c r="F21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4" t="b">
+      <c r="G21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -760,10 +791,11 @@
       <c r="F22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="4" t="b">
+      <c r="G22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -786,10 +818,11 @@
       <c r="F23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="4" t="b">
+      <c r="G23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -812,10 +845,11 @@
       <c r="F24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="4" t="b">
+      <c r="G24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -838,10 +872,11 @@
       <c r="F25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="4" t="b">
+      <c r="G25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -864,10 +899,11 @@
       <c r="F26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="4" t="b">
+      <c r="G26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -890,10 +926,11 @@
       <c r="F27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="4" t="b">
+      <c r="G27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -916,10 +953,11 @@
       <c r="F28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="4" t="b">
+      <c r="G28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -942,10 +980,11 @@
       <c r="F29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="4" t="b">
+      <c r="G29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -968,10 +1007,11 @@
       <c r="F30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="4" t="b">
+      <c r="G30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -994,10 +1034,11 @@
       <c r="F31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="4" t="b">
+      <c r="G31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1020,10 +1061,11 @@
       <c r="F32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="4" t="b">
+      <c r="G32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1046,10 +1088,11 @@
       <c r="F33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="4" t="b">
+      <c r="G33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1072,10 +1115,11 @@
       <c r="F34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="4" t="b">
+      <c r="G34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1098,10 +1142,11 @@
       <c r="F35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="4" t="b">
+      <c r="G35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1124,10 +1169,11 @@
       <c r="F36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="4" t="b">
+      <c r="G36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1150,10 +1196,11 @@
       <c r="F37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="4" t="b">
+      <c r="G37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/s2cDNASample/s2CDNASample_J.PLAGGENBERG_05.31.19.xlsx
+++ b/s2cDNASample/s2CDNASample_J.PLAGGENBERG_05.31.19.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
 </sst>
 </file>
@@ -253,8 +253,7 @@
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H2" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -280,8 +279,7 @@
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -307,8 +305,7 @@
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="6"/>
@@ -335,8 +332,7 @@
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H5" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -362,8 +358,7 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -389,8 +384,7 @@
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H7" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -416,8 +410,7 @@
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -443,8 +436,7 @@
       <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H9" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -470,8 +462,7 @@
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H10" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -497,8 +488,7 @@
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H11" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -524,8 +514,7 @@
       <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H12" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -551,8 +540,7 @@
       <c r="G13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H13" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -578,8 +566,7 @@
       <c r="G14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H14" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -605,8 +592,7 @@
       <c r="G15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H15" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -632,8 +618,7 @@
       <c r="G16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H16" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -659,8 +644,7 @@
       <c r="G17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H17" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -686,8 +670,7 @@
       <c r="G18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H18" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -713,8 +696,7 @@
       <c r="G19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H19" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -740,8 +722,7 @@
       <c r="G20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H20" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -767,8 +748,7 @@
       <c r="G21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H21" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -794,8 +774,7 @@
       <c r="G22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H22" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -821,8 +800,7 @@
       <c r="G23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H23" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -848,8 +826,7 @@
       <c r="G24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H24" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -875,8 +852,7 @@
       <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H25" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -902,8 +878,7 @@
       <c r="G26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H26" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -929,8 +904,7 @@
       <c r="G27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H27" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -956,8 +930,7 @@
       <c r="G28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H28" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -983,8 +956,7 @@
       <c r="G29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H29" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1010,8 +982,7 @@
       <c r="G30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H30" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1037,8 +1008,7 @@
       <c r="G31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H31" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1064,8 +1034,7 @@
       <c r="G32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H32" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1091,8 +1060,7 @@
       <c r="G33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H33" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1118,8 +1086,7 @@
       <c r="G34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H34" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1145,8 +1112,7 @@
       <c r="G35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H35" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1172,8 +1138,7 @@
       <c r="G36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H36" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1199,8 +1164,7 @@
       <c r="G37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H37" s="5" t="b">
         <v>0</v>
       </c>
     </row>
